--- a/SecurityDictionary.xlsx
+++ b/SecurityDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F3CA4E-B602-44BF-BA49-68D19E409F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BAEB23-52E8-4092-9C13-025109BB1866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="5052" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
+    <workbookView xWindow="22932" yWindow="5052" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{2975A15C-7DE5-4143-A013-60C06507A1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemOperator" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>sql user</t>
   </si>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E52A9-E49F-440F-A92D-07306E7876CF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,14 +980,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
-        <v>17</v>
-      </c>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
     </row>
@@ -1078,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372D0377-9E84-401C-872F-BC6C814EE3CB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
